--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H2">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I2">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J2">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03360366666666666</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N2">
-        <v>0.100811</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P2">
-        <v>0.0235667354422325</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q2">
-        <v>0.01058226508466666</v>
+        <v>0.05524686604522223</v>
       </c>
       <c r="R2">
-        <v>0.095240385762</v>
+        <v>0.497221794407</v>
       </c>
       <c r="S2">
-        <v>0.01426306320875139</v>
+        <v>0.08048681365229539</v>
       </c>
       <c r="T2">
-        <v>0.01426306320875139</v>
+        <v>0.08048681365229537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H3">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I3">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J3">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P3">
-        <v>0.8074627800757513</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q3">
-        <v>0.3625782283553333</v>
+        <v>0.2786923248358889</v>
       </c>
       <c r="R3">
-        <v>3.263204055197999</v>
+        <v>2.508230923523</v>
       </c>
       <c r="S3">
-        <v>0.4886927465692106</v>
+        <v>0.4060150162550444</v>
       </c>
       <c r="T3">
-        <v>0.4886927465692106</v>
+        <v>0.4060150162550444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H4">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I4">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J4">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,60 +676,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2314666666666667</v>
+        <v>0.127538</v>
       </c>
       <c r="N4">
-        <v>0.6944</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O4">
-        <v>0.1623309072530404</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P4">
-        <v>0.1623309072530403</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q4">
-        <v>0.07289209386666666</v>
+        <v>0.03087129561533334</v>
       </c>
       <c r="R4">
-        <v>0.6560288448</v>
+        <v>0.277841660538</v>
       </c>
       <c r="S4">
-        <v>0.09824593637754775</v>
+        <v>0.04497507995046062</v>
       </c>
       <c r="T4">
-        <v>0.09824593637754771</v>
+        <v>0.04497507995046062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.314914</v>
+        <v>0.2054156666666667</v>
       </c>
       <c r="H5">
-        <v>0.944742</v>
+        <v>0.616247</v>
       </c>
       <c r="I5">
-        <v>0.6052201520958829</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J5">
-        <v>0.6052201520958828</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009467333333333333</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N5">
-        <v>0.028402</v>
+        <v>0.684721</v>
       </c>
       <c r="O5">
-        <v>0.006639577228975881</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P5">
-        <v>0.00663957722897588</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q5">
-        <v>0.002981395809333333</v>
+        <v>0.04688414023188889</v>
       </c>
       <c r="R5">
-        <v>0.02683256228399999</v>
+        <v>0.421957262087</v>
       </c>
       <c r="S5">
-        <v>0.004018405940373143</v>
+        <v>0.06830351345184521</v>
       </c>
       <c r="T5">
-        <v>0.004018405940373141</v>
+        <v>0.0683035134518452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +788,40 @@
         <v>0.616247</v>
       </c>
       <c r="I6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J6">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03360366666666666</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N6">
-        <v>0.100811</v>
+        <v>3.454069</v>
       </c>
       <c r="O6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="P6">
-        <v>0.0235667354422325</v>
+        <v>0.763937263734893</v>
       </c>
       <c r="Q6">
-        <v>0.006902719590777777</v>
+        <v>0.2365066287825556</v>
       </c>
       <c r="R6">
-        <v>0.062124476317</v>
+        <v>2.128559659043</v>
       </c>
       <c r="S6">
-        <v>0.009303672233481115</v>
+        <v>0.3445564666559102</v>
       </c>
       <c r="T6">
-        <v>0.009303672233481115</v>
+        <v>0.3445564666559102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +850,10 @@
         <v>0.616247</v>
       </c>
       <c r="I7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +862,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.151356333333333</v>
+        <v>0.127538</v>
       </c>
       <c r="N7">
-        <v>3.454069</v>
+        <v>0.3826140000000001</v>
       </c>
       <c r="O7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="P7">
-        <v>0.8074627800757513</v>
+        <v>0.08462282954586674</v>
       </c>
       <c r="Q7">
-        <v>0.2365066287825555</v>
+        <v>0.02619830329533334</v>
       </c>
       <c r="R7">
-        <v>2.128559659043</v>
+        <v>0.235784729658</v>
       </c>
       <c r="S7">
-        <v>0.3187700335065408</v>
+        <v>0.03816719582992825</v>
       </c>
       <c r="T7">
-        <v>0.3187700335065408</v>
+        <v>0.03816719582992825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,60 +906,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2054156666666667</v>
+        <v>0.007968333333333332</v>
       </c>
       <c r="H8">
-        <v>0.616247</v>
+        <v>0.023905</v>
       </c>
       <c r="I8">
-        <v>0.3947798479041172</v>
+        <v>0.01749591420451593</v>
       </c>
       <c r="J8">
-        <v>0.3947798479041172</v>
+        <v>0.01749591420451593</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2314666666666667</v>
+        <v>0.2282403333333334</v>
       </c>
       <c r="N8">
-        <v>0.6944</v>
+        <v>0.684721</v>
       </c>
       <c r="O8">
-        <v>0.1623309072530404</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="P8">
-        <v>0.1623309072530403</v>
+        <v>0.1514399067192403</v>
       </c>
       <c r="Q8">
-        <v>0.04754687964444445</v>
+        <v>0.001818695056111111</v>
       </c>
       <c r="R8">
-        <v>0.4279219168</v>
+        <v>0.016368255505</v>
       </c>
       <c r="S8">
-        <v>0.06408497087549264</v>
+        <v>0.002649579615099724</v>
       </c>
       <c r="T8">
-        <v>0.06408497087549261</v>
+        <v>0.002649579615099723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,46 +968,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2054156666666667</v>
+        <v>0.007968333333333332</v>
       </c>
       <c r="H9">
-        <v>0.616247</v>
+        <v>0.023905</v>
       </c>
       <c r="I9">
-        <v>0.3947798479041172</v>
+        <v>0.01749591420451593</v>
       </c>
       <c r="J9">
-        <v>0.3947798479041172</v>
+        <v>0.01749591420451593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.151356333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.454069</v>
+      </c>
+      <c r="O9">
+        <v>0.763937263734893</v>
+      </c>
+      <c r="P9">
+        <v>0.763937263734893</v>
+      </c>
+      <c r="Q9">
+        <v>0.009174391049444444</v>
+      </c>
+      <c r="R9">
+        <v>0.082569519445</v>
+      </c>
+      <c r="S9">
+        <v>0.01336578082393834</v>
+      </c>
+      <c r="T9">
+        <v>0.01336578082393834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.009467333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.028402</v>
-      </c>
-      <c r="O9">
-        <v>0.006639577228975881</v>
-      </c>
-      <c r="P9">
-        <v>0.00663957722897588</v>
-      </c>
-      <c r="Q9">
-        <v>0.001944738588222222</v>
-      </c>
-      <c r="R9">
-        <v>0.017502647294</v>
-      </c>
-      <c r="S9">
-        <v>0.002621171288602738</v>
-      </c>
-      <c r="T9">
-        <v>0.002621171288602737</v>
+      <c r="G10">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.023905</v>
+      </c>
+      <c r="I10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J10">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.127538</v>
+      </c>
+      <c r="N10">
+        <v>0.3826140000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.08462282954586674</v>
+      </c>
+      <c r="P10">
+        <v>0.08462282954586674</v>
+      </c>
+      <c r="Q10">
+        <v>0.001016265296666667</v>
+      </c>
+      <c r="R10">
+        <v>0.009146387670000001</v>
+      </c>
+      <c r="S10">
+        <v>0.00148055376547786</v>
+      </c>
+      <c r="T10">
+        <v>0.00148055376547786</v>
       </c>
     </row>
   </sheetData>
